--- a/dados/Parceiros.xlsx
+++ b/dados/Parceiros.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="EstaPasta_de_trabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meu Drive\workspace\python\certifast\dados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meu Drive\workspace\python\certifast-relatorios\dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -344,10 +344,10 @@
     <t>Nome Vendedor</t>
   </si>
   <si>
-    <t>Desc. Agente Val.</t>
-  </si>
-  <si>
     <t>16#Patrick Oliveira da Silva</t>
+  </si>
+  <si>
+    <t>Nome Validador</t>
   </si>
 </sst>
 </file>
@@ -740,7 +740,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -763,7 +763,7 @@
         <v>101</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>82</v>
@@ -917,7 +917,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>

--- a/dados/Parceiros.xlsx
+++ b/dados/Parceiros.xlsx
@@ -14,7 +14,12 @@
   <sheets>
     <sheet name="Parceiros" sheetId="15" r:id="rId1"/>
     <sheet name="Comissao" sheetId="16" r:id="rId2"/>
+    <sheet name="Plan1" sheetId="17" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Parceiros!$A$1:$J$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Plan1!$A$1:$B$24</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="123">
   <si>
     <t>ALEXANDRE APARECIDO MANTOVAN</t>
   </si>
@@ -348,13 +353,70 @@
   </si>
   <si>
     <t>Nome Validador</t>
+  </si>
+  <si>
+    <t>Cod.Vendedor</t>
+  </si>
+  <si>
+    <t>Desc. Agente Val.</t>
+  </si>
+  <si>
+    <t>84400</t>
+  </si>
+  <si>
+    <t>84380</t>
+  </si>
+  <si>
+    <t>100566</t>
+  </si>
+  <si>
+    <t>81385</t>
+  </si>
+  <si>
+    <t>89455</t>
+  </si>
+  <si>
+    <t>81739</t>
+  </si>
+  <si>
+    <t>80109</t>
+  </si>
+  <si>
+    <t>100567</t>
+  </si>
+  <si>
+    <t>100714</t>
+  </si>
+  <si>
+    <t>84403</t>
+  </si>
+  <si>
+    <t>68378</t>
+  </si>
+  <si>
+    <t>16#SIDNEI RAMPIM 14053308801</t>
+  </si>
+  <si>
+    <t>95895</t>
+  </si>
+  <si>
+    <t>71210</t>
+  </si>
+  <si>
+    <t>98153</t>
+  </si>
+  <si>
+    <t>97612</t>
+  </si>
+  <si>
+    <t>CODREV</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -372,6 +434,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -399,11 +469,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -421,8 +492,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hiperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -737,10 +816,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Plan7"/>
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -754,11 +833,11 @@
     <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="48.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="48.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" customWidth="1"/>
     <col min="11" max="11" width="35.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>101</v>
       </c>
@@ -786,8 +865,11 @@
       <c r="I1" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -818,8 +900,11 @@
       <c r="I2" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -850,8 +935,11 @@
       <c r="I3" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -882,8 +970,11 @@
       <c r="I4" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -914,8 +1005,11 @@
       <c r="I5" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>102</v>
       </c>
@@ -946,8 +1040,11 @@
       <c r="I6" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>20</v>
       </c>
@@ -978,8 +1075,11 @@
       <c r="I7" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -1007,11 +1107,14 @@
       <c r="H8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" s="9" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8" s="1">
+        <v>80109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -1042,8 +1145,11 @@
       <c r="I9" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
@@ -1074,8 +1180,11 @@
       <c r="I10" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
@@ -1097,8 +1206,11 @@
         <f>VLOOKUP($D11,Comissao!$A:$D,4,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11" s="1">
+        <v>81707</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>70</v>
       </c>
@@ -1120,11 +1232,12 @@
         <f>VLOOKUP($D12,Comissao!$A:$D,4,0)</f>
         <v>0</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I12" s="1"/>
+      <c r="J12" s="1">
+        <v>96579</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -1152,8 +1265,14 @@
       <c r="H13" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>69</v>
       </c>
@@ -1175,8 +1294,11 @@
         <f>VLOOKUP($D14,Comissao!$A:$D,4,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14" s="1">
+        <v>68362</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>71</v>
       </c>
@@ -1201,8 +1323,11 @@
       <c r="I15" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15" s="1">
+        <v>99436</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>10</v>
       </c>
@@ -1230,11 +1355,12 @@
       <c r="H16" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I16" s="1"/>
+      <c r="J16" s="1">
+        <v>97544</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
@@ -1262,8 +1388,14 @@
       <c r="H17" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J17" s="1">
+        <v>91745</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>11</v>
       </c>
@@ -1285,8 +1417,11 @@
         <f>VLOOKUP($D18,Comissao!$A:$D,4,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18" s="1">
+        <v>87289</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>15</v>
       </c>
@@ -1308,8 +1443,11 @@
         <f>VLOOKUP($D19,Comissao!$A:$D,4,0)</f>
         <v>0.14000000000000001</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>87</v>
       </c>
@@ -1340,8 +1478,11 @@
       <c r="I20" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>86</v>
       </c>
@@ -1372,8 +1513,11 @@
       <c r="I21" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>90</v>
       </c>
@@ -1402,8 +1546,11 @@
       <c r="I22" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>91</v>
       </c>
@@ -1432,10 +1579,17 @@
       <c r="I23" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="J23" s="1">
+        <v>99853</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J23"/>
+  <hyperlinks>
+    <hyperlink ref="I8" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1444,7 +1598,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A2" sqref="A2:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1584,4 +1738,201 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="66.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B12" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B24"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>